--- a/digital_inputs.xlsx
+++ b/digital_inputs.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\lanzaa\Documents\GitHub\Flask_Sites\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05759F7-FA2B-426D-9FC8-DA686EF91270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
-  <si>
-    <t>D1 VAV Key</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="78">
   <si>
     <t>D1 VAV Value</t>
   </si>
   <si>
-    <t>D2 VAV Key</t>
-  </si>
-  <si>
     <t>D2 VAV Value</t>
   </si>
   <si>
@@ -83,21 +86,206 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Op. Mode Switch</t>
+  </si>
+  <si>
+    <t>Rain Det.</t>
+  </si>
+  <si>
+    <t>Emer Det. Shade</t>
+  </si>
+  <si>
+    <t>Emer Det. Light</t>
+  </si>
+  <si>
+    <t>Fire Detec</t>
+  </si>
+  <si>
+    <t>Smoke Exhaust Req</t>
+  </si>
+  <si>
+    <t>Smoke Supply Req</t>
+  </si>
+  <si>
+    <t>Heat Pump Avail.</t>
+  </si>
+  <si>
+    <t>DX Evap Fault</t>
+  </si>
+  <si>
+    <t>Frost Protection</t>
+  </si>
+  <si>
+    <t>Heat Pump Fault</t>
+  </si>
+  <si>
+    <t>Heat Pump Src Sta</t>
+  </si>
+  <si>
+    <t>Heat Pump In Avail.</t>
+  </si>
+  <si>
+    <t>Duct Humid Alm</t>
+  </si>
+  <si>
+    <t>Air Flow Det.</t>
+  </si>
+  <si>
+    <t>Humidifier Fault</t>
+  </si>
+  <si>
+    <t>FH Fire Det</t>
+  </si>
+  <si>
+    <t>FH Purge Switch</t>
+  </si>
+  <si>
+    <t>FH Sash Alert</t>
+  </si>
+  <si>
+    <t>FH Sash Switch</t>
+  </si>
+  <si>
+    <t>FH jet fan</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Ô</t>
+  </si>
+  <si>
+    <t>ô</t>
+  </si>
+  <si>
+    <t>Ư</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>£</t>
+  </si>
+  <si>
+    <t>¥</t>
+  </si>
+  <si>
+    <t>₩</t>
+  </si>
+  <si>
+    <t>฿</t>
+  </si>
+  <si>
+    <t>DI Key</t>
+  </si>
+  <si>
+    <t>D1 FPB Value</t>
+  </si>
+  <si>
+    <t>D2 FPB Value</t>
+  </si>
+  <si>
+    <t>D1 CENFUNC Value</t>
+  </si>
+  <si>
+    <t>D2 CENFUNC Value</t>
+  </si>
+  <si>
+    <t>B1 FH Value</t>
+  </si>
+  <si>
+    <t>B2 FH Value</t>
+  </si>
+  <si>
+    <t>D1 FH Value</t>
+  </si>
+  <si>
+    <t>D2 FH Value</t>
+  </si>
+  <si>
+    <t>D3 FH Value</t>
+  </si>
+  <si>
+    <t>FH Sash Pos (Ohm)</t>
+  </si>
+  <si>
+    <t>°</t>
+  </si>
+  <si>
+    <t>D1 LAB Value</t>
+  </si>
+  <si>
+    <t>D2 LAB Value</t>
+  </si>
+  <si>
+    <t>D3 LAB Value</t>
+  </si>
+  <si>
+    <t>B1 LAB Value</t>
+  </si>
+  <si>
+    <t>B2 LAB Value</t>
+  </si>
+  <si>
+    <t>D1 FCU Value</t>
+  </si>
+  <si>
+    <t>D2 FCU Value</t>
+  </si>
+  <si>
+    <t>D1 WSHP Value</t>
+  </si>
+  <si>
+    <t>D2 WSHP Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,36 +293,60 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -324,174 +536,2175 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1:M1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="25" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="T10" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="U10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="1">
+        <v>3</v>
+      </c>
+      <c r="M24" s="1">
+        <v>3</v>
+      </c>
+      <c r="N24" s="1">
+        <v>3</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U33" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/digital_inputs.xlsx
+++ b/digital_inputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\lanzaa\Documents\GitHub\Flask_Sites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05759F7-FA2B-426D-9FC8-DA686EF91270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CC82D8-7DB5-434F-AAAF-FB8075BE6169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -711,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>21</v>
